--- a/Economics/Dissertation/Relevant Data/Hourly Productivity II.xlsx
+++ b/Economics/Dissertation/Relevant Data/Hourly Productivity II.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ndata12\murphl$\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\University Documents\Notes\PPE\Shared Notes\Economics\Dissertation\Relevant Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D27F377A-4690-49EB-AA75-2ACC9EE7F827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015FC8EE-3BDE-45B0-B4B5-EAE209F74D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover_sheet" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4031" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4033" uniqueCount="544">
   <si>
     <t>Output per hour, UK</t>
   </si>
@@ -1693,17 +1693,24 @@
   <si>
     <t>Worksheet: Contributions to quarter on quarter output per hour growth by section-level industry aggregations, in percentage points</t>
   </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="###,###,##0.0"/>
     <numFmt numFmtId="165" formatCode="###,###,##0"/>
     <numFmt numFmtId="166" formatCode="###,###,##0.00"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1788,6 +1795,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1822,7 +1835,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="top"/>
@@ -1830,8 +1843,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1883,14 +1897,21 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Comma" xfId="4" builtinId="3"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2483,10 +2504,14 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table_4" displayName="Table_4" ref="A4:B37">
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table_4" displayName="Table_4" ref="A4:D37">
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Year"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Whole economy"/>
+    <tableColumn id="3" xr3:uid="{CF47DA34-2E43-4301-8056-EF448063F2F0}" name="Column1"/>
+    <tableColumn id="4" xr3:uid="{36D4A9BA-9AC7-4F8A-91D9-7C7FE4CD0E5D}" name="Column2" dataDxfId="0">
+      <calculatedColumnFormula>Table_4[[#This Row],[Column1]]/Table_4[[#This Row],[Whole economy]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2789,7 +2814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2879,7 +2904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -66453,7 +66478,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -82084,304 +82111,449 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" style="14" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>159</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>542</v>
+      </c>
+      <c r="D4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>95</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" s="20" t="e">
+        <f>Table_4[[#This Row],[Column1]]/Table_4[[#This Row],[Whole economy]]</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>96</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D6" s="20" t="e">
+        <f>Table_4[[#This Row],[Column1]]/Table_4[[#This Row],[Whole economy]]</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>163</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7" s="20" t="e">
+        <f>Table_4[[#This Row],[Column1]]/Table_4[[#This Row],[Whole economy]]</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>204</v>
       </c>
       <c r="B8" s="11">
         <v>843885366.88274646</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D8" s="20">
+        <f>Table_4[[#This Row],[Column1]]/Table_4[[#This Row],[Whole economy]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>205</v>
       </c>
       <c r="B9" s="11">
         <v>855309620.49073744</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D9" s="20">
+        <f>Table_4[[#This Row],[Column1]]/Table_4[[#This Row],[Whole economy]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>206</v>
       </c>
       <c r="B10" s="11">
         <v>863014584.93686569</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D10" s="20">
+        <f>Table_4[[#This Row],[Column1]]/Table_4[[#This Row],[Whole economy]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>207</v>
       </c>
       <c r="B11" s="11">
         <v>878010802.58503103</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="19">
+        <v>45656561734.421608</v>
+      </c>
+      <c r="D11" s="20">
+        <f>Table_4[[#This Row],[Column1]]/Table_4[[#This Row],[Whole economy]]</f>
+        <v>51.999999999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>208</v>
       </c>
       <c r="B12" s="11">
         <v>884761869.63648772</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D12" s="20">
+        <f>Table_4[[#This Row],[Column1]]/Table_4[[#This Row],[Whole economy]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>209</v>
       </c>
       <c r="B13" s="11">
         <v>892669681.09812021</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D13" s="20">
+        <f>Table_4[[#This Row],[Column1]]/Table_4[[#This Row],[Whole economy]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>210</v>
       </c>
       <c r="B14" s="11">
         <v>894772177.08129251</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D14" s="20">
+        <f>Table_4[[#This Row],[Column1]]/Table_4[[#This Row],[Whole economy]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>211</v>
       </c>
       <c r="B15" s="11">
         <v>903831216.86914039</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D15" s="20">
+        <f>Table_4[[#This Row],[Column1]]/Table_4[[#This Row],[Whole economy]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>212</v>
       </c>
       <c r="B16" s="11">
         <v>902003134.65105581</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D16" s="20">
+        <f>Table_4[[#This Row],[Column1]]/Table_4[[#This Row],[Whole economy]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>213</v>
       </c>
       <c r="B17" s="11">
         <v>905996671.63001776</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D17" s="20">
+        <f>Table_4[[#This Row],[Column1]]/Table_4[[#This Row],[Whole economy]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>214</v>
       </c>
       <c r="B18" s="11">
         <v>914477617.65623152</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D18" s="20">
+        <f>Table_4[[#This Row],[Column1]]/Table_4[[#This Row],[Whole economy]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>215</v>
       </c>
       <c r="B19" s="11">
         <v>926372986.74274671</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D19" s="20">
+        <f>Table_4[[#This Row],[Column1]]/Table_4[[#This Row],[Whole economy]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>216</v>
       </c>
       <c r="B20" s="11">
         <v>932409963.91194916</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D20" s="20">
+        <f>Table_4[[#This Row],[Column1]]/Table_4[[#This Row],[Whole economy]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>217</v>
       </c>
       <c r="B21" s="11">
         <v>941151598.62901366</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D21" s="20">
+        <f>Table_4[[#This Row],[Column1]]/Table_4[[#This Row],[Whole economy]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>218</v>
       </c>
       <c r="B22" s="11">
         <v>946065538.64625406</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D22" s="20">
+        <f>Table_4[[#This Row],[Column1]]/Table_4[[#This Row],[Whole economy]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>219</v>
       </c>
       <c r="B23" s="11">
         <v>918607621.56931221</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D23" s="20">
+        <f>Table_4[[#This Row],[Column1]]/Table_4[[#This Row],[Whole economy]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>220</v>
       </c>
       <c r="B24" s="11">
         <v>923628280.72124243</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D24" s="20">
+        <f>Table_4[[#This Row],[Column1]]/Table_4[[#This Row],[Whole economy]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>221</v>
       </c>
       <c r="B25" s="11">
         <v>926523301.08787107</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D25" s="20">
+        <f>Table_4[[#This Row],[Column1]]/Table_4[[#This Row],[Whole economy]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>222</v>
       </c>
       <c r="B26" s="11">
         <v>946000273.62987137</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D26" s="20">
+        <f>Table_4[[#This Row],[Column1]]/Table_4[[#This Row],[Whole economy]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>223</v>
       </c>
       <c r="B27" s="11">
         <v>964238643.84656</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D27" s="20">
+        <f>Table_4[[#This Row],[Column1]]/Table_4[[#This Row],[Whole economy]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>224</v>
       </c>
       <c r="B28" s="11">
         <v>991189357.0196346</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D28" s="20">
+        <f>Table_4[[#This Row],[Column1]]/Table_4[[#This Row],[Whole economy]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>225</v>
       </c>
       <c r="B29" s="11">
         <v>1006359155.7552</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D29" s="20">
+        <f>Table_4[[#This Row],[Column1]]/Table_4[[#This Row],[Whole economy]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>226</v>
       </c>
       <c r="B30" s="11">
         <v>1020183712.132874</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D30" s="20">
+        <f>Table_4[[#This Row],[Column1]]/Table_4[[#This Row],[Whole economy]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>227</v>
       </c>
       <c r="B31" s="11">
         <v>1031134096.432626</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D31" s="20">
+        <f>Table_4[[#This Row],[Column1]]/Table_4[[#This Row],[Whole economy]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>228</v>
       </c>
       <c r="B32" s="11">
         <v>1039694658.624135</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D32" s="20">
+        <f>Table_4[[#This Row],[Column1]]/Table_4[[#This Row],[Whole economy]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>229</v>
       </c>
       <c r="B33" s="11">
         <v>1055921875.613948</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D33" s="20">
+        <f>Table_4[[#This Row],[Column1]]/Table_4[[#This Row],[Whole economy]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>230</v>
       </c>
       <c r="B34" s="11">
         <v>940751355.73546267</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D34" s="20">
+        <f>Table_4[[#This Row],[Column1]]/Table_4[[#This Row],[Whole economy]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>231</v>
       </c>
       <c r="B35" s="11">
         <v>1006897382.973594</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D35" s="20">
+        <f>Table_4[[#This Row],[Column1]]/Table_4[[#This Row],[Whole economy]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>232</v>
       </c>
       <c r="B36" s="11">
         <v>1046123576.533131</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D36" s="20">
+        <f>Table_4[[#This Row],[Column1]]/Table_4[[#This Row],[Whole economy]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>233</v>
       </c>
       <c r="B37" s="11">
         <v>1054366463.241348</v>
       </c>
+      <c r="D37" s="20">
+        <f>Table_4[[#This Row],[Column1]]/Table_4[[#This Row],[Whole economy]]</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A3" location="Table_of_contents!A1" display="Return to table of contents" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
@@ -82703,31 +82875,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="96a98433-1569-4222-be80-afd48d89a184" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SectionName xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">Change Log</SectionName>
-    <Comments xmlns="1e572c8d-6813-4013-8a4a-be491ac59459" xsi:nil="true"/>
-    <ReferenceId xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">22471</ReferenceId>
-    <Notes xmlns="1e572c8d-6813-4013-8a4a-be491ac59459" xsi:nil="true"/>
-    <TrackerId xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">TRCK-3034</TrackerId>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100366FE8C85E70484CA6E47CDF031DEDC1" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="39a28afb6bfd1532f30453894a73da6c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e572c8d-6813-4013-8a4a-be491ac59459" xmlns:ns3="96a98433-1569-4222-be80-afd48d89a184" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c6cf37292414ab3c2182af2094a228db" ns2:_="" ns3:_="">
     <xsd:import namespace="1e572c8d-6813-4013-8a4a-be491ac59459"/>
@@ -82990,10 +83137,46 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="96a98433-1569-4222-be80-afd48d89a184" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SectionName xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">Change Log</SectionName>
+    <Comments xmlns="1e572c8d-6813-4013-8a4a-be491ac59459" xsi:nil="true"/>
+    <ReferenceId xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">22471</ReferenceId>
+    <Notes xmlns="1e572c8d-6813-4013-8a4a-be491ac59459" xsi:nil="true"/>
+    <TrackerId xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">TRCK-3034</TrackerId>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D42A73F5-7F9E-4806-98C2-17A97A817111}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B58EE4D0-AD15-4837-8A8C-6DF99B90336C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e572c8d-6813-4013-8a4a-be491ac59459"/>
+    <ds:schemaRef ds:uri="96a98433-1569-4222-be80-afd48d89a184"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -83012,20 +83195,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B58EE4D0-AD15-4837-8A8C-6DF99B90336C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D42A73F5-7F9E-4806-98C2-17A97A817111}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e572c8d-6813-4013-8a4a-be491ac59459"/>
-    <ds:schemaRef ds:uri="96a98433-1569-4222-be80-afd48d89a184"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>